--- a/aux_btg.xlsx
+++ b/aux_btg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>codneg</t>
   </si>
@@ -25,61 +25,10 @@
     <t>contrato</t>
   </si>
   <si>
-    <t>AMBP3</t>
-  </si>
-  <si>
-    <t>BPAC11</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
     <t>MGLU3</t>
   </si>
   <si>
-    <t>RAIL3</t>
-  </si>
-  <si>
-    <t>2023102500521151810001-1</t>
-  </si>
-  <si>
-    <t>2023102500521151850001-1</t>
-  </si>
-  <si>
-    <t>2023071400481960330001-1</t>
-  </si>
-  <si>
-    <t>2023071400481960390001-1</t>
-  </si>
-  <si>
-    <t>2023071400481960570001-1</t>
-  </si>
-  <si>
-    <t>2023071400481960810001-1</t>
-  </si>
-  <si>
-    <t>2023071400481961190001-1</t>
-  </si>
-  <si>
-    <t>2023071400481961250001-1</t>
-  </si>
-  <si>
-    <t>2023082400496956150001-1</t>
-  </si>
-  <si>
-    <t>2023082400496956260001-1</t>
-  </si>
-  <si>
-    <t>2023081800494851580001-1</t>
-  </si>
-  <si>
-    <t>2023082200496008710001-1</t>
-  </si>
-  <si>
-    <t>2023082400496953010001-1</t>
-  </si>
-  <si>
-    <t>2023071100480661860001-1</t>
+    <t>2023082400496953410001-1</t>
   </si>
 </sst>
 </file>
@@ -437,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,198 +405,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>3600</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>478</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>531</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4">
-        <v>8772</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>532</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>533</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>534</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2278</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>535</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>536</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>539</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>540</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>578</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>15400</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>579</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>580</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>14300</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>608</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
